--- a/Selenium/Bugs/data/genre/재즈힙합.xlsx
+++ b/Selenium/Bugs/data/genre/재즈힙합.xlsx
@@ -58,13 +58,13 @@
     <t>Sliding</t>
   </si>
   <si>
-    <t>Nuts</t>
+    <t xml:space="preserve">Nuts </t>
   </si>
   <si>
     <t>mosey</t>
   </si>
   <si>
-    <t>Sacrifice</t>
+    <t xml:space="preserve">Sacrifice </t>
   </si>
   <si>
     <t>While You Were Sleeping</t>
@@ -76,7 +76,7 @@
     <t>Whistle</t>
   </si>
   <si>
-    <t>Letmegettheviberight (Original Mix)</t>
+    <t xml:space="preserve">Letmegettheviberight (Original Mix) </t>
   </si>
   <si>
     <t>moonbeam.</t>
@@ -178,7 +178,7 @@
     <t>White Christmas (feat. Jobe &amp; Ibrahim)</t>
   </si>
   <si>
-    <t>Bella-notte</t>
+    <t xml:space="preserve">Bella-notte </t>
   </si>
   <si>
     <t>snowluv</t>
@@ -220,7 +220,7 @@
     <t>mellow night</t>
   </si>
   <si>
-    <t>Coffee Shop Date</t>
+    <t xml:space="preserve">Coffee Shop Date </t>
   </si>
   <si>
     <t>Apple_Tree</t>
@@ -229,7 +229,7 @@
     <t>Official Tea Taster</t>
   </si>
   <si>
-    <t>Trippin'</t>
+    <t xml:space="preserve">Trippin' </t>
   </si>
   <si>
     <t>Be Mine</t>
@@ -250,7 +250,7 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>Melt</t>
+    <t xml:space="preserve">Melt </t>
   </si>
   <si>
     <t>Captain Calvin</t>
@@ -322,25 +322,25 @@
     <t>The Dream</t>
   </si>
   <si>
-    <t>Simping (feat. Shiloh Dynasty)</t>
+    <t xml:space="preserve">Simping (feat. Shiloh Dynasty) </t>
   </si>
   <si>
     <t>garden in a bottle</t>
   </si>
   <si>
-    <t>Longsleeves</t>
-  </si>
-  <si>
-    <t>Her</t>
-  </si>
-  <si>
-    <t>Saturday Chillin'</t>
+    <t xml:space="preserve">Longsleeves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Her </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturday Chillin' </t>
   </si>
   <si>
     <t>Je T'aime</t>
   </si>
   <si>
-    <t>The Last Cherry Blossom</t>
+    <t xml:space="preserve">The Last Cherry Blossom </t>
   </si>
   <si>
     <t>Pair</t>
@@ -412,13 +412,13 @@
     <t>We, Together, Overnight</t>
   </si>
   <si>
-    <t>Summer Nights</t>
+    <t xml:space="preserve">Summer Nights </t>
   </si>
   <si>
     <t>305 Am (feat. Dhan)</t>
   </si>
   <si>
-    <t>Daydream</t>
+    <t xml:space="preserve">Daydream </t>
   </si>
   <si>
     <t>Spring Wind</t>
@@ -433,7 +433,7 @@
     <t>Caffe? Mocha</t>
   </si>
   <si>
-    <t>Lune</t>
+    <t xml:space="preserve">Lune </t>
   </si>
   <si>
     <t>Mint Jam</t>
@@ -448,10 +448,10 @@
     <t>Better days</t>
   </si>
   <si>
-    <t>Café</t>
-  </si>
-  <si>
-    <t>It's Raining Again</t>
+    <t xml:space="preserve">Café </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's Raining Again </t>
   </si>
   <si>
     <t>Vìo</t>
@@ -478,7 +478,7 @@
     <t>change of scenery</t>
   </si>
   <si>
-    <t>Wish You Were with Me (feat. Taiyo Ky)</t>
+    <t xml:space="preserve">Wish You Were with Me (feat. Taiyo Ky) </t>
   </si>
   <si>
     <t>Don't Stop</t>
@@ -487,13 +487,13 @@
     <t>Resolve (Feat. Happy Tobi)</t>
   </si>
   <si>
-    <t>Love Mode</t>
-  </si>
-  <si>
-    <t>Just a Sec</t>
-  </si>
-  <si>
-    <t>Gitdown</t>
+    <t xml:space="preserve">Love Mode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just a Sec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gitdown </t>
   </si>
   <si>
     <t>Damn Fine Coffee</t>
@@ -505,7 +505,7 @@
     <t>Piano Bar</t>
   </si>
   <si>
-    <t>Sippin</t>
+    <t xml:space="preserve">Sippin </t>
   </si>
   <si>
     <t>Lovelight</t>
@@ -550,13 +550,13 @@
     <t>The Girl From France</t>
   </si>
   <si>
-    <t>Clear Skies</t>
-  </si>
-  <si>
-    <t>Warm</t>
-  </si>
-  <si>
-    <t>Blue Shades</t>
+    <t xml:space="preserve">Clear Skies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Shades </t>
   </si>
   <si>
     <t>My Rainy Valentine</t>
